--- a/data/GSCI/2019.xlsx
+++ b/data/GSCI/2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74CD93-FCE3-41DC-92B9-A8B14C7EC415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5E74CD93-FCE3-41DC-92B9-A8B14C7EC415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C6F030C-D0EE-4017-9F0A-DD666848CCDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data usage" sheetId="2" r:id="rId2"/>
+    <sheet name="sci" sheetId="3" r:id="rId2"/>
+    <sheet name="Data usage" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$4:$N$184</definedName>
@@ -22,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="204">
   <si>
     <t>Country</t>
   </si>
@@ -636,6 +642,12 @@
   </si>
   <si>
     <t xml:space="preserve">Governance </t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>sci</t>
   </si>
 </sst>
 </file>
@@ -954,19 +966,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,13 +1005,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,25 +1519,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="N184" sqref="N5:N184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="9" customWidth="1"/>
-    <col min="5" max="14" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
+    <col min="5" max="14" width="11.5546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>199</v>
       </c>
@@ -1543,7 +1555,7 @@
       <c r="N2" s="35"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1584,7 @@
       </c>
       <c r="N3" s="51"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -1611,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>63.790290339551824</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>55.600502907433594</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>56.017030014673679</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>59.81393811332736</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>57.372478258173217</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>50.252599845450973</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>46.545811724029555</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>63.528261782182788</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>61.065668856159533</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>59.804765109726596</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>53.50418273411934</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2103,7 +2115,7 @@
         <v>52.674210278170683</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>49.343685860699523</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>58.393849437864894</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>50.073601047650861</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>53.3014908800507</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>62.502658006911354</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>53.753871340973724</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>49.890617633191887</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>53.094346176356296</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>50.433000831937989</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>58.793965110796783</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>54.458254490989283</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>50.619160998918403</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>48.294592054233149</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>55.668289780470005</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>41.006757818638981</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>56.80276937388372</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>46.910181416526306</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>52.113639204505155</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>47.418827597045414</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>40.435347293575063</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
@@ -2964,7 +2976,7 @@
         <v>47.346353770330083</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>47.48396902928765</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>45.764262140499767</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>53.501432439865923</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>39.704582892861033</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>49.201842045882231</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>55.14915587581222</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>48.950888440811759</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>39</v>
       </c>
@@ -3292,7 +3304,7 @@
         <v>38.729687254439725</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>48.992500657431933</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>67</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>43.606789250353586</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>76</v>
       </c>
@@ -3415,7 +3427,7 @@
         <v>51.253968253971642</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>47.761067464765894</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>123</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>45.571900047147565</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>35</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>56.474773073560478</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -3579,7 +3591,7 @@
         <v>55.397789219033307</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>54.401593650980708</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>86</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>64.362879145057349</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>38</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>39.630641625387049</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
@@ -3743,7 +3755,7 @@
         <v>50.112838561324651</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>49</v>
       </c>
@@ -3784,7 +3796,7 @@
         <v>50.770705641992762</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>89</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>58.331918906176341</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>37.869053339237944</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>42.992613547068999</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>78</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>43.644791587306948</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>44.374596619631191</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>92</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>39.330661637592328</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v>36.367593902247357</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>81</v>
       </c>
@@ -4112,7 +4124,7 @@
         <v>51.438943894389425</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>52.439101052962435</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>47.252053872612791</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
@@ -4235,7 +4247,7 @@
         <v>59.349677824925344</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>45.937450887945928</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>48</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>44.447623207458328</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
@@ -4358,7 +4370,7 @@
         <v>51.143419394730259</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
@@ -4399,7 +4411,7 @@
         <v>49.164387867358158</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>51</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>42.655275471633701</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>57</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>42.737230865943737</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>112</v>
       </c>
@@ -4522,7 +4534,7 @@
         <v>45.355021216408218</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>70</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>33.627003414926442</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>66</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>41.563099167059555</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>91</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>42.153701084394157</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>90</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>45.260508036809767</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>34</v>
       </c>
@@ -4727,7 +4739,7 @@
         <v>37.77306302058777</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>41.775891874901774</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>96</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>36.384724186704382</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>58</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>45.630317387664093</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>124</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>42.14757190004714</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>93</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>58.692597831211685</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>109</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>44.144428728587144</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>77</v>
       </c>
@@ -5014,7 +5026,7 @@
         <v>49.380638063806373</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>98</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>45.485305673424484</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>79</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>48.650636492220642</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>104</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>50.586672953009582</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>133</v>
       </c>
@@ -5178,7 +5190,7 @@
         <v>66.328304258997335</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -5219,7 +5231,7 @@
         <v>44.374037403740381</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>106</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>50.126984126984119</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>47.980040861228979</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>85</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>57.055476976269048</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>42.048561999057505</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>75</v>
       </c>
@@ -5424,7 +5436,7 @@
         <v>57.689611818324686</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>63</v>
       </c>
@@ -5465,7 +5477,7 @@
         <v>39.085965739431082</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>114</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>57.915448687725899</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>87</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>61.36272198648436</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>162</v>
       </c>
@@ -5588,7 +5600,7 @@
         <v>39.249724972497233</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>126</v>
       </c>
@@ -5629,7 +5641,7 @@
         <v>46.499764262140502</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>65</v>
       </c>
@@ -5670,7 +5682,7 @@
         <v>42.805932680803394</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>65.554298286971559</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
@@ -5752,7 +5764,7 @@
         <v>45.640735502121636</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>94</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>60.882445387395869</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>119</v>
       </c>
@@ -5834,7 +5846,7 @@
         <v>49.947711646855389</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>103</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>61.127455602703115</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>99</v>
       </c>
@@ -5916,7 +5928,7 @@
         <v>57.722911778212776</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>122</v>
       </c>
@@ -5957,7 +5969,7 @@
         <v>44.097281156687089</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>194</v>
       </c>
@@ -5998,7 +6010,7 @@
         <v>51.945623133741933</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>82</v>
       </c>
@@ -6039,7 +6051,7 @@
         <v>49.982398239823986</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>105</v>
       </c>
@@ -6080,7 +6092,7 @@
         <v>57.530724501021531</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>41</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>35.747131856042728</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>143</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>42.071762086964092</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>72</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>44.844570171302834</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>130</v>
       </c>
@@ -6244,7 +6256,7 @@
         <v>44.236719044281294</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>127</v>
       </c>
@@ -6285,7 +6297,7 @@
         <v>54.282885431400281</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>120</v>
       </c>
@@ -6326,7 +6338,7 @@
         <v>57.689768976897689</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>147</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>54.240766933836213</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>153</v>
       </c>
@@ -6408,7 +6420,7 @@
         <v>51.905704856199897</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>64</v>
       </c>
@@ -6449,7 +6461,7 @@
         <v>41.054355016467042</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>137</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>45.316988841741306</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>125</v>
       </c>
@@ -6531,7 +6543,7 @@
         <v>45.141146173338612</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>146</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>50.167688197391158</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>118</v>
       </c>
@@ -6613,7 +6625,7 @@
         <v>52.680496621090668</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
         <v>84</v>
       </c>
@@ -6654,7 +6666,7 @@
         <v>47.824884432058759</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>145</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>63.837498035517818</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>148</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>49.05987741631305</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>191</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>47.506942233931184</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
         <v>149</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>43.02687411598302</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>121</v>
       </c>
@@ -6859,7 +6871,7 @@
         <v>63.316517366022289</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
         <v>111</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>52.891560584629879</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
         <v>135</v>
       </c>
@@ -6941,7 +6953,7 @@
         <v>44.002043061449001</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
         <v>176</v>
       </c>
@@ -6982,7 +6994,7 @@
         <v>53.030645921735022</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>138</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>48.748860600345751</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>117</v>
       </c>
@@ -7064,7 +7076,7 @@
         <v>48.654408297972644</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>189</v>
       </c>
@@ -7105,7 +7117,7 @@
         <v>44.123369479805106</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>144</v>
       </c>
@@ -7146,7 +7158,7 @@
         <v>50.678925035361701</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>151</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>40.565299387081552</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>156</v>
       </c>
@@ -7228,7 +7240,7 @@
         <v>52.29514380009428</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>128</v>
       </c>
@@ -7269,7 +7281,7 @@
         <v>39.71302844570171</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>129</v>
       </c>
@@ -7310,7 +7322,7 @@
         <v>55.389910419613379</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>132</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>38.564513594216557</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
         <v>131</v>
       </c>
@@ -7392,7 +7404,7 @@
         <v>38.827754203991809</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
         <v>159</v>
       </c>
@@ -7433,7 +7445,7 @@
         <v>49.154172560113139</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
         <v>163</v>
       </c>
@@ -7474,7 +7486,7 @@
         <v>46.611128843509725</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
         <v>116</v>
       </c>
@@ -7515,7 +7527,7 @@
         <v>40.948923463774946</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
         <v>173</v>
       </c>
@@ -7556,7 +7568,7 @@
         <v>46.741945623133738</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>190</v>
       </c>
@@ -7597,7 +7609,7 @@
         <v>37.714600031431708</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>134</v>
       </c>
@@ -7638,7 +7650,7 @@
         <v>49.815810152443802</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
         <v>168</v>
       </c>
@@ -7679,7 +7691,7 @@
         <v>51.157315731573149</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
         <v>110</v>
       </c>
@@ -7720,7 +7732,7 @@
         <v>53.02373094452301</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>142</v>
       </c>
@@ -7761,7 +7773,7 @@
         <v>45.53166745245953</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>167</v>
       </c>
@@ -7802,7 +7814,7 @@
         <v>37.556341348420553</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
@@ -7843,7 +7855,7 @@
         <v>52.73393053591073</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
         <v>150</v>
       </c>
@@ -7884,7 +7896,7 @@
         <v>51.645135942165638</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>157</v>
       </c>
@@ -7925,7 +7937,7 @@
         <v>46.741159830268721</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
         <v>152</v>
       </c>
@@ -7966,7 +7978,7 @@
         <v>49.888888888888872</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>115</v>
       </c>
@@ -8007,7 +8019,7 @@
         <v>44.420556341348416</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>155</v>
       </c>
@@ -8048,7 +8060,7 @@
         <v>46.02986012887002</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>164</v>
       </c>
@@ -8089,7 +8101,7 @@
         <v>53.146471790036138</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>154</v>
       </c>
@@ -8130,7 +8142,7 @@
         <v>50.262297658337246</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
         <v>165</v>
       </c>
@@ -8171,7 +8183,7 @@
         <v>45.445230237309445</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>108</v>
       </c>
@@ -8212,7 +8224,7 @@
         <v>37.321074964639308</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
         <v>113</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>30.635549269212625</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
         <v>166</v>
       </c>
@@ -8294,7 +8306,7 @@
         <v>54.502675024110182</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
         <v>136</v>
       </c>
@@ -8335,7 +8347,7 @@
         <v>41.88275970458286</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
         <v>195</v>
       </c>
@@ -8376,7 +8388,7 @@
         <v>44.747446185196075</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>177</v>
       </c>
@@ -8417,7 +8429,7 @@
         <v>48.017601760176021</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
         <v>161</v>
       </c>
@@ -8458,7 +8470,7 @@
         <v>48.447744774477435</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
         <v>175</v>
       </c>
@@ -8499,7 +8511,7 @@
         <v>43.308187961653317</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
         <v>169</v>
       </c>
@@ -8540,7 +8552,7 @@
         <v>50.526166902404519</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
         <v>139</v>
       </c>
@@ -8581,7 +8593,7 @@
         <v>53.030645921735029</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>160</v>
       </c>
@@ -8622,7 +8634,7 @@
         <v>42.332861857921415</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>158</v>
       </c>
@@ -8663,7 +8675,7 @@
         <v>49.093666509508076</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
         <v>171</v>
       </c>
@@ -8704,7 +8716,7 @@
         <v>53.390224736759379</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>44.9088480276599</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>174</v>
       </c>
@@ -8786,7 +8798,7 @@
         <v>34.224422442244212</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>88</v>
       </c>
@@ -8827,7 +8839,7 @@
         <v>27.595473833097582</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>196</v>
       </c>
@@ -8868,7 +8880,7 @@
         <v>52.918749017758905</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>197</v>
       </c>
@@ -8909,7 +8921,7 @@
         <v>46.652208077950661</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>172</v>
       </c>
@@ -8950,7 +8962,7 @@
         <v>55.153701084394143</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>198</v>
       </c>
@@ -8991,7 +9003,7 @@
         <v>27.049504950692</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
       <c r="D185" s="12"/>
@@ -9006,7 +9018,7 @@
       <c r="M185" s="13"/>
       <c r="N185" s="14"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="15" t="s">
         <v>178</v>
       </c>
@@ -9041,7 +9053,7 @@
         <v>48.712426243714951</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="15" t="s">
         <v>179</v>
       </c>
@@ -9076,7 +9088,7 @@
         <v>66.328304258997335</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="15" t="s">
         <v>180</v>
       </c>
@@ -9120,6 +9132,1469 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F64E00-4186-42E0-8A6F-9D38B678B078}">
+  <dimension ref="A1:B181"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="49">
+        <v>63.790290339551824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="49">
+        <v>55.600502907433594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="49">
+        <v>56.017030014673679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="49">
+        <v>59.81393811332736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="49">
+        <v>57.372478258173217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="49">
+        <v>50.252599845450973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="49">
+        <v>46.545811724029555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="49">
+        <v>63.528261782182788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="49">
+        <v>61.065668856159533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="49">
+        <v>59.804765109726596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="49">
+        <v>53.50418273411934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="49">
+        <v>52.674210278170683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="49">
+        <v>49.343685860699523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="49">
+        <v>58.393849437864894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="49">
+        <v>50.073601047650861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="49">
+        <v>53.3014908800507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="49">
+        <v>62.502658006911354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="49">
+        <v>53.753871340973724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="49">
+        <v>49.890617633191887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="49">
+        <v>53.094346176356296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="49">
+        <v>50.433000831937989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="49">
+        <v>58.793965110796783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="49">
+        <v>54.458254490989283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="49">
+        <v>50.619160998918403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="49">
+        <v>48.294592054233149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="49">
+        <v>55.668289780470005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="49">
+        <v>41.006757818638981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="49">
+        <v>56.80276937388372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="49">
+        <v>46.910181416526306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="49">
+        <v>52.113639204505155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="49">
+        <v>47.418827597045414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="49">
+        <v>40.435347293575063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="49">
+        <v>47.346353770330083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="49">
+        <v>47.48396902928765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="49">
+        <v>45.764262140499767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="49">
+        <v>53.501432439865923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="49">
+        <v>39.704582892861033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="49">
+        <v>49.201842045882231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="49">
+        <v>55.14915587581222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="49">
+        <v>48.950888440811759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="49">
+        <v>38.729687254439725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="49">
+        <v>48.992500657431933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="49">
+        <v>43.606789250353586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="49">
+        <v>51.253968253971642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="49">
+        <v>47.761067464765894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="49">
+        <v>45.571900047147565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="49">
+        <v>56.474773073560478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="49">
+        <v>55.397789219033307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="49">
+        <v>54.401593650980708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="49">
+        <v>64.362879145057349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="49">
+        <v>39.630641625387049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="49">
+        <v>50.112838561324651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="49">
+        <v>50.770705641992762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="49">
+        <v>58.331918906176341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="49">
+        <v>37.869053339237944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="49">
+        <v>42.992613547068999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="49">
+        <v>43.644791587306948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="49">
+        <v>44.374596619631191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="49">
+        <v>39.330661637592328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="49">
+        <v>36.367593902247357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="49">
+        <v>51.438943894389425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="49">
+        <v>52.439101052962435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="49">
+        <v>47.252053872612791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="49">
+        <v>59.349677824925344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="49">
+        <v>45.937450887945928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="49">
+        <v>44.447623207458328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="49">
+        <v>51.143419394730259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="49">
+        <v>49.164387867358158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="49">
+        <v>42.655275471633701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="49">
+        <v>42.737230865943737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="49">
+        <v>45.355021216408218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="49">
+        <v>33.627003414926442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="49">
+        <v>41.563099167059555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="49">
+        <v>42.153701084394157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="49">
+        <v>45.260508036809767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="49">
+        <v>37.77306302058777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="49">
+        <v>41.775891874901774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="49">
+        <v>36.384724186704382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="49">
+        <v>45.630317387664093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="49">
+        <v>42.14757190004714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="49">
+        <v>58.692597831211685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="49">
+        <v>44.144428728587144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="49">
+        <v>49.380638063806373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="49">
+        <v>45.485305673424484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="49">
+        <v>48.650636492220642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="49">
+        <v>50.586672953009582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="49">
+        <v>66.328304258997335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="49">
+        <v>44.374037403740381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="49">
+        <v>50.126984126984119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="49">
+        <v>47.980040861228979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="49">
+        <v>57.055476976269048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="49">
+        <v>42.048561999057505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="49">
+        <v>57.689611818324686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="49">
+        <v>39.085965739431082</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="49">
+        <v>57.915448687725899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="49">
+        <v>61.36272198648436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="49">
+        <v>39.249724972497233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="49">
+        <v>46.499764262140502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="49">
+        <v>42.805932680803394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="49">
+        <v>65.554298286971559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="49">
+        <v>45.640735502121636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="49">
+        <v>60.882445387395869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="49">
+        <v>49.947711646855389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="49">
+        <v>61.127455602703115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="49">
+        <v>57.722911778212776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="49">
+        <v>44.097281156687089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="49">
+        <v>51.945623133741933</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="49">
+        <v>49.982398239823986</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="49">
+        <v>57.530724501021531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="49">
+        <v>35.747131856042728</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="49">
+        <v>42.071762086964092</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" s="49">
+        <v>44.844570171302834</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="49">
+        <v>44.236719044281294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="49">
+        <v>54.282885431400281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="49">
+        <v>57.689768976897689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="49">
+        <v>54.240766933836213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="49">
+        <v>51.905704856199897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="49">
+        <v>41.054355016467042</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="49">
+        <v>45.316988841741306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="49">
+        <v>45.141146173338612</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="49">
+        <v>50.167688197391158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="49">
+        <v>52.680496621090668</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="49">
+        <v>47.824884432058759</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="49">
+        <v>63.837498035517818</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="49">
+        <v>49.05987741631305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="49">
+        <v>47.506942233931184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="49">
+        <v>43.02687411598302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="49">
+        <v>63.316517366022289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="49">
+        <v>52.891560584629879</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="49">
+        <v>44.002043061449001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="49">
+        <v>53.030645921735022</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="49">
+        <v>48.748860600345751</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="49">
+        <v>48.654408297972644</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="49">
+        <v>44.123369479805106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="49">
+        <v>50.678925035361701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="49">
+        <v>40.565299387081552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="49">
+        <v>52.29514380009428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="49">
+        <v>39.71302844570171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="49">
+        <v>55.389910419613379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="49">
+        <v>38.564513594216557</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="49">
+        <v>38.827754203991809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="49">
+        <v>49.154172560113139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="49">
+        <v>46.611128843509725</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="49">
+        <v>40.948923463774946</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="49">
+        <v>46.741945623133738</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="49">
+        <v>37.714600031431708</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="49">
+        <v>49.815810152443802</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="49">
+        <v>51.157315731573149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="49">
+        <v>53.02373094452301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="49">
+        <v>45.53166745245953</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="49">
+        <v>37.556341348420553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="49">
+        <v>52.73393053591073</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="49">
+        <v>51.645135942165638</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" s="49">
+        <v>46.741159830268721</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="49">
+        <v>49.888888888888872</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="49">
+        <v>44.420556341348416</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="49">
+        <v>46.02986012887002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="49">
+        <v>53.146471790036138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" s="49">
+        <v>50.262297658337246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="49">
+        <v>45.445230237309445</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="49">
+        <v>37.321074964639308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163" s="49">
+        <v>30.635549269212625</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="49">
+        <v>54.502675024110182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="49">
+        <v>41.88275970458286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" s="49">
+        <v>44.747446185196075</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" s="49">
+        <v>48.017601760176021</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="49">
+        <v>48.447744774477435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="49">
+        <v>43.308187961653317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="49">
+        <v>50.526166902404519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="49">
+        <v>53.030645921735029</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" s="49">
+        <v>42.332861857921415</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="49">
+        <v>49.093666509508076</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" s="49">
+        <v>53.390224736759379</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="49">
+        <v>44.9088480276599</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="49">
+        <v>34.224422442244212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B177" s="49">
+        <v>27.595473833097582</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" s="49">
+        <v>52.918749017758905</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" s="49">
+        <v>46.652208077950661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180" s="49">
+        <v>55.153701084394143</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" s="49">
+        <v>27.049504950692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
@@ -9127,15 +10602,15 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>199</v>
       </c>
@@ -9153,7 +10628,7 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
@@ -9169,13 +10644,13 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>181</v>
       </c>
@@ -9183,7 +10658,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>182</v>
       </c>
@@ -9191,7 +10666,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>188</v>
       </c>
@@ -9199,22 +10674,22 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="48" t="s">
         <v>183</v>
       </c>
